--- a/hardware/super/docs/calculos.xlsx
+++ b/hardware/super/docs/calculos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blnv\workspace\tcc\hardware\super\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37CB57E-6449-4FF0-B4A7-4C5F4561CFF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E040BC-121B-4BE7-B639-5A23A98F4D97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{2D3173D3-3A35-49DF-9251-42F9D9CCE24F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1" xr2:uid="{2D3173D3-3A35-49DF-9251-42F9D9CCE24F}"/>
   </bookViews>
   <sheets>
     <sheet name="Vin min 74HC165" sheetId="1" r:id="rId1"/>
+    <sheet name="Divisor TCRT5000" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Vin</t>
   </si>
@@ -37,6 +38,21 @@
   </si>
   <si>
     <t>VIN</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Rsup</t>
+  </si>
+  <si>
+    <t>Rinf</t>
+  </si>
+  <si>
+    <t>Vhmin</t>
+  </si>
+  <si>
+    <t>Vlmax</t>
   </si>
 </sst>
 </file>
@@ -112,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -124,6 +140,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237DF26C-0C95-4D5B-BA0A-CDFB4BA9C2F9}">
   <dimension ref="B1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1538,4 +1555,79 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0776B88-9FBE-4D6F-8702-04D8DE31AAD2}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f>0.75*B2</f>
+        <v>2.4749999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f>0.25*B2</f>
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <f>B1*B7/(B6+B7)</f>
+        <v>3.2142857142857144</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hardware/super/docs/calculos.xlsx
+++ b/hardware/super/docs/calculos.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blnv\workspace\tcc\hardware\super\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E040BC-121B-4BE7-B639-5A23A98F4D97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE832064-C9B8-4F9B-A348-432CC2533E83}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1" xr2:uid="{2D3173D3-3A35-49DF-9251-42F9D9CCE24F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" activeTab="2" xr2:uid="{2D3173D3-3A35-49DF-9251-42F9D9CCE24F}"/>
   </bookViews>
   <sheets>
     <sheet name="Vin min 74HC165" sheetId="1" r:id="rId1"/>
     <sheet name="Divisor TCRT5000" sheetId="2" r:id="rId2"/>
+    <sheet name="Teclado ADC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Vin</t>
   </si>
@@ -53,6 +54,18 @@
   </si>
   <si>
     <t>Vlmax</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
   </si>
 </sst>
 </file>
@@ -128,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +154,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1561,7 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0776B88-9FBE-4D6F-8702-04D8DE31AAD2}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1630,4 +1644,138 @@
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA9D7B5-9717-40C3-B455-3F73E3250B87}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <f>J7</f>
+        <v>0.93806254767353159</v>
+      </c>
+      <c r="C1" s="6">
+        <f>B1*1023</f>
+        <v>959.63798627002279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <f>J8</f>
+        <v>0.53856858846918487</v>
+      </c>
+      <c r="C2" s="6">
+        <f t="shared" ref="C2:C4" si="0">B2*1023</f>
+        <v>550.95566600397615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <f>J9</f>
+        <v>0.37019403228436321</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" si="0"/>
+        <v>378.70849502690356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <f>J10</f>
+        <v>0.27226582940868654</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>278.52794348508633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>430</v>
+      </c>
+      <c r="H7">
+        <f>F7*SUM(F9:F12)/(F7+SUM(F9:F12))</f>
+        <v>397.15808170515101</v>
+      </c>
+      <c r="J7">
+        <f>F5*H7/(F8+H7)</f>
+        <v>0.93806254767353159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="H8">
+        <f>F7*SUM(F10:F12)/(F7+SUM(F10:F12))</f>
+        <v>390.06479481641469</v>
+      </c>
+      <c r="J8">
+        <f>F5*H8/(H8+SUM(F8:F9))</f>
+        <v>0.53856858846918487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <f>F7*SUM(F11:F12)/(F7+SUM(F11:F12))</f>
+        <v>379.06336088154268</v>
+      </c>
+      <c r="J9">
+        <f>F5*H9/(H9+SUM(F8:F10))</f>
+        <v>0.37019403228436321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="H10">
+        <f>F7*F12/(F7+F12)</f>
+        <v>359.69581749049428</v>
+      </c>
+      <c r="J10">
+        <f>H10*F5/(H10+SUM(F8:F11))</f>
+        <v>0.27226582940868654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>2200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hardware/super/docs/calculos.xlsx
+++ b/hardware/super/docs/calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blnv\workspace\tcc\hardware\super\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE832064-C9B8-4F9B-A348-432CC2533E83}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBBF997-2562-42EE-835F-14F971A930AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590" activeTab="2" xr2:uid="{2D3173D3-3A35-49DF-9251-42F9D9CCE24F}"/>
   </bookViews>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +154,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1651,7 +1652,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,11 +1661,11 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="6">
         <f>J7</f>
         <v>0.93806254767353159</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="7">
         <f>B1*1023</f>
         <v>959.63798627002279</v>
       </c>
@@ -1673,12 +1674,12 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <f>J8</f>
         <v>0.53856858846918487</v>
       </c>
-      <c r="C2" s="6">
-        <f t="shared" ref="C2:C4" si="0">B2*1023</f>
+      <c r="C2" s="7">
+        <f>B2*1023</f>
         <v>550.95566600397615</v>
       </c>
     </row>
@@ -1686,12 +1687,12 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <f>J9</f>
         <v>0.37019403228436321</v>
       </c>
-      <c r="C3" s="6">
-        <f t="shared" si="0"/>
+      <c r="C3" s="7">
+        <f t="shared" ref="C2:C4" si="0">B3*1023</f>
         <v>378.70849502690356</v>
       </c>
     </row>
@@ -1699,11 +1700,11 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <f>J10</f>
         <v>0.27226582940868654</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <f t="shared" si="0"/>
         <v>278.52794348508633</v>
       </c>
